--- a/Code/Results/Cases/Case_1_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.264088078953529</v>
+        <v>7.826708101776549</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.805253040361933</v>
+        <v>8.428653024961088</v>
       </c>
       <c r="E2">
-        <v>30.01799942756252</v>
+        <v>16.31824107584387</v>
       </c>
       <c r="F2">
-        <v>63.35987445892918</v>
+        <v>46.98426329439417</v>
       </c>
       <c r="G2">
-        <v>2.048739782059901</v>
+        <v>3.671752231996937</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.94960722086121</v>
+        <v>13.56665419506214</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.897492262605775</v>
+        <v>7.758101565779985</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.33241870664974</v>
+        <v>8.280758455761747</v>
       </c>
       <c r="E3">
-        <v>27.67086579322998</v>
+        <v>15.39753157995865</v>
       </c>
       <c r="F3">
-        <v>59.3690227352377</v>
+        <v>45.63964592489109</v>
       </c>
       <c r="G3">
-        <v>2.06533535735618</v>
+        <v>3.676753955401931</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.44188155437939</v>
+        <v>13.28718078769574</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.667802357314779</v>
+        <v>7.717641409760542</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.039590068256201</v>
+        <v>8.188755721533065</v>
       </c>
       <c r="E4">
-        <v>26.18369351990624</v>
+        <v>14.80962437884951</v>
       </c>
       <c r="F4">
-        <v>56.8617069992135</v>
+        <v>44.80113486122085</v>
       </c>
       <c r="G4">
-        <v>2.075577300116305</v>
+        <v>3.67997244360572</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.48336433408625</v>
+        <v>13.12080524575059</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.573138217616421</v>
+        <v>7.701589100054782</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.919564991414489</v>
+        <v>8.150989038213266</v>
       </c>
       <c r="E5">
-        <v>25.56507730910056</v>
+        <v>14.56464244413985</v>
       </c>
       <c r="F5">
-        <v>55.82527372906944</v>
+        <v>44.45662460226387</v>
       </c>
       <c r="G5">
-        <v>2.079773771306177</v>
+        <v>3.681321265927033</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.08397080883011</v>
+        <v>13.05444171113893</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.55735825792603</v>
+        <v>7.698950410969188</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.899591718186194</v>
+        <v>8.144702069222351</v>
       </c>
       <c r="E6">
-        <v>25.46156981806273</v>
+        <v>14.52364601513326</v>
       </c>
       <c r="F6">
-        <v>55.65228334067817</v>
+        <v>44.39926246137694</v>
       </c>
       <c r="G6">
-        <v>2.080472226800326</v>
+        <v>3.681547493085362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.01710619177252</v>
+        <v>13.04351234774442</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.666529849648437</v>
+        <v>7.717423137423782</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.037974242178995</v>
+        <v>8.188247465365814</v>
       </c>
       <c r="E7">
-        <v>26.17540281876834</v>
+        <v>14.80634194923813</v>
       </c>
       <c r="F7">
-        <v>56.84778900050163</v>
+        <v>44.79649945829365</v>
       </c>
       <c r="G7">
-        <v>2.075633791072059</v>
+        <v>3.679990483162585</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.47801423894214</v>
+        <v>13.11990427009909</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138688143970567</v>
+        <v>7.802717522349337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.642689237085191</v>
+        <v>8.377922182929384</v>
       </c>
       <c r="E8">
-        <v>29.21760487727882</v>
+        <v>16.0056177458328</v>
       </c>
       <c r="F8">
-        <v>61.99531688235182</v>
+        <v>46.52357234892643</v>
       </c>
       <c r="G8">
-        <v>2.054457375342752</v>
+        <v>3.673446349161892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.4361886701516</v>
+        <v>13.46928219456833</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.025370453945575</v>
+        <v>7.982404126339218</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.81385002582489</v>
+        <v>8.739300674617681</v>
       </c>
       <c r="E9">
-        <v>34.87324682814737</v>
+        <v>18.19951367570059</v>
       </c>
       <c r="F9">
-        <v>71.67358487019808</v>
+        <v>49.79014626091607</v>
       </c>
       <c r="G9">
-        <v>2.012819180743493</v>
+        <v>3.661774022430802</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.0458174980707</v>
+        <v>14.19037544236281</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.729356046940296</v>
+        <v>8.12090192165136</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.67694205533449</v>
+        <v>8.996955917567968</v>
       </c>
       <c r="E10">
-        <v>38.93698281834818</v>
+        <v>19.84232061102844</v>
       </c>
       <c r="F10">
-        <v>78.61295429855203</v>
+        <v>52.09508635747896</v>
       </c>
       <c r="G10">
-        <v>1.981238255651498</v>
+        <v>3.653893390247799</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.6089810270454</v>
+        <v>14.73479051535524</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.065336257185605</v>
+        <v>8.18507392196563</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.07437724556518</v>
+        <v>9.112186251827218</v>
       </c>
       <c r="E11">
-        <v>40.79637948791827</v>
+        <v>20.54901404399155</v>
       </c>
       <c r="F11">
-        <v>81.76271934707199</v>
+        <v>53.11903725904082</v>
       </c>
       <c r="G11">
-        <v>1.966373179662185</v>
+        <v>3.650456483817698</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.77148247524111</v>
+        <v>14.984140353378</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.190801585609256</v>
+        <v>8.209521585795459</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.22608745733892</v>
+        <v>9.155514392211323</v>
       </c>
       <c r="E12">
-        <v>41.50560361297369</v>
+        <v>20.81082156078195</v>
       </c>
       <c r="F12">
-        <v>82.95811671330394</v>
+        <v>53.50295315353117</v>
       </c>
       <c r="G12">
-        <v>1.960639992386657</v>
+        <v>3.649176089380672</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.21298458982215</v>
+        <v>15.07868783092537</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.163855797542116</v>
+        <v>8.204250134732963</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.19334990083913</v>
+        <v>9.14619690723336</v>
       </c>
       <c r="E13">
-        <v>41.3525629500898</v>
+        <v>20.75469403046332</v>
       </c>
       <c r="F13">
-        <v>82.70047699484741</v>
+        <v>53.42044486237781</v>
       </c>
       <c r="G13">
-        <v>1.961879989526538</v>
+        <v>3.649450910550092</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.11780754244378</v>
+        <v>15.05832165608762</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.075692634952231</v>
+        <v>8.187082417615159</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.08683066608733</v>
+        <v>9.115757163797387</v>
       </c>
       <c r="E14">
-        <v>40.85460084438441</v>
+        <v>20.57066915507828</v>
       </c>
       <c r="F14">
-        <v>81.86098694650806</v>
+        <v>53.15070065383571</v>
       </c>
       <c r="G14">
-        <v>1.965903813886703</v>
+        <v>3.650350723520893</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.80776712405493</v>
+        <v>14.99191700613855</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.021466000386933</v>
+        <v>8.17658523205591</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.0217605949307</v>
+        <v>9.097071299332619</v>
       </c>
       <c r="E15">
-        <v>40.55037531083279</v>
+        <v>20.45719421485452</v>
       </c>
       <c r="F15">
-        <v>81.34724946283269</v>
+        <v>52.9849671453202</v>
       </c>
       <c r="G15">
-        <v>1.968353838500393</v>
+        <v>3.650904625210135</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.61808837034232</v>
+        <v>14.9512549634175</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.707142598716107</v>
+        <v>8.116729859724844</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.65110595977603</v>
+        <v>8.98938357647334</v>
       </c>
       <c r="E16">
-        <v>38.81596373923053</v>
+        <v>19.79532244295801</v>
       </c>
       <c r="F16">
-        <v>78.40725496858273</v>
+        <v>52.02764806088304</v>
       </c>
       <c r="G16">
-        <v>1.98219712797754</v>
+        <v>3.654120961937525</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.5330800797123</v>
+        <v>14.71851864715051</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.510991186167701</v>
+        <v>8.080294990255656</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.42527051039194</v>
+        <v>8.922797501326727</v>
       </c>
       <c r="E17">
-        <v>37.75692911555154</v>
+        <v>19.37890848544015</v>
       </c>
       <c r="F17">
-        <v>76.60411972489236</v>
+        <v>51.43384759569712</v>
       </c>
       <c r="G17">
-        <v>1.990541532200803</v>
+        <v>3.656131853512537</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.86768904244549</v>
+        <v>14.57608929453312</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.396898854671901</v>
+        <v>8.059449879577045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.29578920208806</v>
+        <v>8.884314023403777</v>
       </c>
       <c r="E18">
-        <v>37.14855056172106</v>
+        <v>19.13557171560259</v>
       </c>
       <c r="F18">
-        <v>75.56606913592086</v>
+        <v>51.09001179823385</v>
       </c>
       <c r="G18">
-        <v>1.995296453919952</v>
+        <v>3.657302410701852</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.48451308073323</v>
+        <v>14.49433382162876</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.358046480285308</v>
+        <v>8.052411828850287</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.25200693583785</v>
+        <v>8.871253125073144</v>
       </c>
       <c r="E19">
-        <v>36.94260131545096</v>
+        <v>19.05252363906764</v>
       </c>
       <c r="F19">
-        <v>75.21434957326929</v>
+        <v>50.97320986660721</v>
       </c>
       <c r="G19">
-        <v>1.996899577408744</v>
+        <v>3.657701142466935</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.35465057199408</v>
+        <v>14.46668508472755</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.532002353793622</v>
+        <v>8.084162180407484</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.44926509519884</v>
+        <v>8.929905009525923</v>
       </c>
       <c r="E20">
-        <v>37.86956515157732</v>
+        <v>19.42363219583508</v>
       </c>
       <c r="F20">
-        <v>76.79614054457346</v>
+        <v>51.49729869904793</v>
       </c>
       <c r="G20">
-        <v>1.989658073125867</v>
+        <v>3.655916348802328</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.93855736454834</v>
+        <v>14.59123483196193</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.101634660025885</v>
+        <v>8.192121166644206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.11808006995731</v>
+        <v>9.124706562923665</v>
       </c>
       <c r="E21">
-        <v>41.00069156165592</v>
+        <v>20.62487886438347</v>
       </c>
       <c r="F21">
-        <v>82.10745831555796</v>
+        <v>53.23003729742253</v>
       </c>
       <c r="G21">
-        <v>1.964725051527829</v>
+        <v>3.650085855928148</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.89878159795426</v>
+        <v>15.01141921448411</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.463752162436476</v>
+        <v>8.263526402034294</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.56262902764019</v>
+        <v>9.250221055578686</v>
       </c>
       <c r="E22">
-        <v>43.07944373673671</v>
+        <v>21.37616347181789</v>
       </c>
       <c r="F22">
-        <v>85.66117182555567</v>
+        <v>54.34002797354653</v>
       </c>
       <c r="G22">
-        <v>1.947800109530966</v>
+        <v>3.646398111994985</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.18867617171056</v>
+        <v>15.2867064138488</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.271349387113453</v>
+        <v>8.225345437477033</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.32446177241992</v>
+        <v>9.183403434341521</v>
       </c>
       <c r="E23">
-        <v>41.96550786193377</v>
+        <v>20.97826810256213</v>
       </c>
       <c r="F23">
-        <v>83.73900977180261</v>
+        <v>53.74975052946004</v>
       </c>
       <c r="G23">
-        <v>1.956904372579453</v>
+        <v>3.648355158520299</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.49868800013178</v>
+        <v>15.13975676497951</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.522507335129038</v>
+        <v>8.082413505128102</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.43841607576217</v>
+        <v>8.926692333324509</v>
       </c>
       <c r="E24">
-        <v>37.8186411736085</v>
+        <v>19.40342486555761</v>
       </c>
       <c r="F24">
-        <v>76.70933256380344</v>
+        <v>51.46862006974363</v>
       </c>
       <c r="G24">
-        <v>1.990057614697241</v>
+        <v>3.656013733399362</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.90651989766942</v>
+        <v>14.58438712338009</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.789971668091756</v>
+        <v>7.932574751704799</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.49764980823189</v>
+        <v>8.642818370300228</v>
       </c>
       <c r="E25">
-        <v>33.36771113246333</v>
+        <v>17.60480309248785</v>
       </c>
       <c r="F25">
-        <v>69.09325976675083</v>
+        <v>48.92167977231189</v>
       </c>
       <c r="G25">
-        <v>2.024178372737081</v>
+        <v>3.664808730723989</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.08930994586337</v>
+        <v>13.99221123460496</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.826708101776549</v>
+        <v>7.264088078953532</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.428653024961088</v>
+        <v>9.805253040361954</v>
       </c>
       <c r="E2">
-        <v>16.31824107584387</v>
+        <v>30.01799942756236</v>
       </c>
       <c r="F2">
-        <v>46.98426329439417</v>
+        <v>63.35987445892929</v>
       </c>
       <c r="G2">
-        <v>3.671752231996937</v>
+        <v>2.048739782060166</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.56665419506214</v>
+        <v>19.94960722086122</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.758101565779985</v>
+        <v>6.897492262605756</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.280758455761747</v>
+        <v>9.332418706649799</v>
       </c>
       <c r="E3">
-        <v>15.39753157995865</v>
+        <v>27.67086579323009</v>
       </c>
       <c r="F3">
-        <v>45.63964592489109</v>
+        <v>59.36902273523774</v>
       </c>
       <c r="G3">
-        <v>3.676753955401931</v>
+        <v>2.065335357356302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.28718078769574</v>
+        <v>18.44188155437928</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.717641409760542</v>
+        <v>6.667802357314738</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.188755721533065</v>
+        <v>9.039590068256201</v>
       </c>
       <c r="E4">
-        <v>14.80962437884951</v>
+        <v>26.18369351990622</v>
       </c>
       <c r="F4">
-        <v>44.80113486122085</v>
+        <v>56.86170699921351</v>
       </c>
       <c r="G4">
-        <v>3.67997244360572</v>
+        <v>2.075577300116562</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.12080524575059</v>
+        <v>17.48336433408626</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.701589100054782</v>
+        <v>6.573138217616386</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.150989038213266</v>
+        <v>8.919564991414424</v>
       </c>
       <c r="E5">
-        <v>14.56464244413985</v>
+        <v>25.56507730910053</v>
       </c>
       <c r="F5">
-        <v>44.45662460226387</v>
+        <v>55.82527372906956</v>
       </c>
       <c r="G5">
-        <v>3.681321265927033</v>
+        <v>2.07977377130631</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.05444171113893</v>
+        <v>17.08397080883012</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.698950410969188</v>
+        <v>6.557358257926035</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.144702069222351</v>
+        <v>8.899591718186114</v>
       </c>
       <c r="E6">
-        <v>14.52364601513326</v>
+        <v>25.4615698180628</v>
       </c>
       <c r="F6">
-        <v>44.39926246137694</v>
+        <v>55.65228334067813</v>
       </c>
       <c r="G6">
-        <v>3.681547493085362</v>
+        <v>2.080472226800863</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.04351234774442</v>
+        <v>17.01710619177252</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.717423137423782</v>
+        <v>6.666529849648454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.188247465365814</v>
+        <v>9.037974242179015</v>
       </c>
       <c r="E7">
-        <v>14.80634194923813</v>
+        <v>26.17540281876831</v>
       </c>
       <c r="F7">
-        <v>44.79649945829365</v>
+        <v>56.84778900050136</v>
       </c>
       <c r="G7">
-        <v>3.679990483162585</v>
+        <v>2.075633791072053</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.11990427009909</v>
+        <v>17.47801423894223</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.802717522349337</v>
+        <v>7.138688143970598</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.377922182929384</v>
+        <v>9.642689237085241</v>
       </c>
       <c r="E8">
-        <v>16.0056177458328</v>
+        <v>29.21760487727878</v>
       </c>
       <c r="F8">
-        <v>46.52357234892643</v>
+        <v>61.99531688235174</v>
       </c>
       <c r="G8">
-        <v>3.673446349161892</v>
+        <v>2.054457375342748</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.46928219456833</v>
+        <v>19.43618867015168</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.982404126339218</v>
+        <v>8.02537045394555</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.739300674617681</v>
+        <v>10.81385002582504</v>
       </c>
       <c r="E9">
-        <v>18.19951367570059</v>
+        <v>34.87324682814739</v>
       </c>
       <c r="F9">
-        <v>49.79014626091607</v>
+        <v>71.67358487019837</v>
       </c>
       <c r="G9">
-        <v>3.661774022430802</v>
+        <v>2.012819180743501</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.19037544236281</v>
+        <v>23.04581749807063</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.12090192165136</v>
+        <v>8.729356046940246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.996955917567968</v>
+        <v>11.67694205533447</v>
       </c>
       <c r="E10">
-        <v>19.84232061102844</v>
+        <v>38.93698281834799</v>
       </c>
       <c r="F10">
-        <v>52.09508635747896</v>
+        <v>78.61295429855168</v>
       </c>
       <c r="G10">
-        <v>3.653893390247799</v>
+        <v>1.981238255651345</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.73479051535524</v>
+        <v>25.60898102704532</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.18507392196563</v>
+        <v>9.065336257185496</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.112186251827218</v>
+        <v>12.07437724556528</v>
       </c>
       <c r="E11">
-        <v>20.54901404399155</v>
+        <v>40.79637948791834</v>
       </c>
       <c r="F11">
-        <v>53.11903725904082</v>
+        <v>81.76271934707226</v>
       </c>
       <c r="G11">
-        <v>3.650456483817698</v>
+        <v>1.966373179661904</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.984140353378</v>
+        <v>26.77148247524117</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.209521585795459</v>
+        <v>9.190801585609252</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.155514392211323</v>
+        <v>12.22608745733894</v>
       </c>
       <c r="E12">
-        <v>20.81082156078195</v>
+        <v>41.50560361297375</v>
       </c>
       <c r="F12">
-        <v>53.50295315353117</v>
+        <v>82.95811671330404</v>
       </c>
       <c r="G12">
-        <v>3.649176089380672</v>
+        <v>1.960639992386648</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.07868783092537</v>
+        <v>27.21298458982219</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.204250134732963</v>
+        <v>9.163855797542183</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.14619690723336</v>
+        <v>12.19334990083901</v>
       </c>
       <c r="E13">
-        <v>20.75469403046332</v>
+        <v>41.35256295008979</v>
       </c>
       <c r="F13">
-        <v>53.42044486237781</v>
+        <v>82.70047699484702</v>
       </c>
       <c r="G13">
-        <v>3.649450910550092</v>
+        <v>1.961879989526647</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.05832165608762</v>
+        <v>27.11780754244374</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.187082417615159</v>
+        <v>9.075692634952272</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.115757163797387</v>
+        <v>12.08683066608749</v>
       </c>
       <c r="E14">
-        <v>20.57066915507828</v>
+        <v>40.8546008443847</v>
       </c>
       <c r="F14">
-        <v>53.15070065383571</v>
+        <v>81.86098694650886</v>
       </c>
       <c r="G14">
-        <v>3.650350723520893</v>
+        <v>1.965903813886822</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.99191700613855</v>
+        <v>26.8077671240551</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.17658523205591</v>
+        <v>9.021466000386958</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.097071299332619</v>
+        <v>12.02176059493078</v>
       </c>
       <c r="E15">
-        <v>20.45719421485452</v>
+        <v>40.55037531083291</v>
       </c>
       <c r="F15">
-        <v>52.9849671453202</v>
+        <v>81.34724946283278</v>
       </c>
       <c r="G15">
-        <v>3.650904625210135</v>
+        <v>1.96835383850038</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.9512549634175</v>
+        <v>26.61808837034237</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.116729859724844</v>
+        <v>8.707142598716132</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.98938357647334</v>
+        <v>11.65110595977605</v>
       </c>
       <c r="E16">
-        <v>19.79532244295801</v>
+        <v>38.8159637392306</v>
       </c>
       <c r="F16">
-        <v>52.02764806088304</v>
+        <v>78.40725496858305</v>
       </c>
       <c r="G16">
-        <v>3.654120961937525</v>
+        <v>1.982197127977664</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.71851864715051</v>
+        <v>25.53308007971232</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.080294990255656</v>
+        <v>8.510991186167665</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.922797501326727</v>
+        <v>11.42527051039204</v>
       </c>
       <c r="E17">
-        <v>19.37890848544015</v>
+        <v>37.75692911555169</v>
       </c>
       <c r="F17">
-        <v>51.43384759569712</v>
+        <v>76.60411972489263</v>
       </c>
       <c r="G17">
-        <v>3.656131853512537</v>
+        <v>1.990541532200687</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.57608929453312</v>
+        <v>24.8676890424455</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.059449879577045</v>
+        <v>8.396898854671866</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.884314023403777</v>
+        <v>11.29578920208803</v>
       </c>
       <c r="E18">
-        <v>19.13557171560259</v>
+        <v>37.14855056172095</v>
       </c>
       <c r="F18">
-        <v>51.09001179823385</v>
+        <v>75.56606913592123</v>
       </c>
       <c r="G18">
-        <v>3.657302410701852</v>
+        <v>1.995296453919835</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.49433382162876</v>
+        <v>24.48451308073326</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.052411828850287</v>
+        <v>8.358046480285207</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.871253125073144</v>
+        <v>11.2520069358379</v>
       </c>
       <c r="E19">
-        <v>19.05252363906764</v>
+        <v>36.94260131545082</v>
       </c>
       <c r="F19">
-        <v>50.97320986660721</v>
+        <v>75.21434957326939</v>
       </c>
       <c r="G19">
-        <v>3.657701142466935</v>
+        <v>1.996899577408995</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.46668508472755</v>
+        <v>24.35465057199422</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.084162180407484</v>
+        <v>8.53200235379362</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.929905009525923</v>
+        <v>11.44926509519889</v>
       </c>
       <c r="E20">
-        <v>19.42363219583508</v>
+        <v>37.86956515157735</v>
       </c>
       <c r="F20">
-        <v>51.49729869904793</v>
+        <v>76.79614054457356</v>
       </c>
       <c r="G20">
-        <v>3.655916348802328</v>
+        <v>1.989658073125868</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.59123483196193</v>
+        <v>24.93855736454829</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.192121166644206</v>
+        <v>9.101634660025962</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.124706562923665</v>
+        <v>12.11808006995742</v>
       </c>
       <c r="E21">
-        <v>20.62487886438347</v>
+        <v>41.00069156165598</v>
       </c>
       <c r="F21">
-        <v>53.23003729742253</v>
+        <v>82.10745831555816</v>
       </c>
       <c r="G21">
-        <v>3.650085855928148</v>
+        <v>1.964725051527567</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.01141921448411</v>
+        <v>26.89878159795445</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.263526402034294</v>
+        <v>9.463752162436442</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.250221055578686</v>
+        <v>12.56262902764021</v>
       </c>
       <c r="E22">
-        <v>21.37616347181789</v>
+        <v>43.07944373673656</v>
       </c>
       <c r="F22">
-        <v>54.34002797354653</v>
+        <v>85.66117182555556</v>
       </c>
       <c r="G22">
-        <v>3.646398111994985</v>
+        <v>1.947800109530689</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.2867064138488</v>
+        <v>28.18867617171051</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.225345437477033</v>
+        <v>9.271349387113357</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.183403434341521</v>
+        <v>12.32446177241987</v>
       </c>
       <c r="E23">
-        <v>20.97826810256213</v>
+        <v>41.96550786193368</v>
       </c>
       <c r="F23">
-        <v>53.74975052946004</v>
+        <v>83.7390097718023</v>
       </c>
       <c r="G23">
-        <v>3.648355158520299</v>
+        <v>1.956904372579334</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.13975676497951</v>
+        <v>27.4986880001318</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.082413505128102</v>
+        <v>8.522507335128996</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.926692333324509</v>
+        <v>11.43841607576222</v>
       </c>
       <c r="E24">
-        <v>19.40342486555761</v>
+        <v>37.81864117360855</v>
       </c>
       <c r="F24">
-        <v>51.46862006974363</v>
+        <v>76.70933256380363</v>
       </c>
       <c r="G24">
-        <v>3.656013733399362</v>
+        <v>1.990057614697237</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.58438712338009</v>
+        <v>24.90651989766944</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.932574751704799</v>
+        <v>7.789971668091729</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.642818370300228</v>
+        <v>10.49764980823203</v>
       </c>
       <c r="E25">
-        <v>17.60480309248785</v>
+        <v>33.36771113246348</v>
       </c>
       <c r="F25">
-        <v>48.92167977231189</v>
+        <v>69.09325976675109</v>
       </c>
       <c r="G25">
-        <v>3.664808730723989</v>
+        <v>2.024178372736812</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.99221123460496</v>
+        <v>22.08930994586351</v>
       </c>
       <c r="L25">
         <v>0</v>
